--- a/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FC0F8B-5644-4E3F-AEE0-FFEBA84824E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DEA038-6356-4669-B964-633EF69DE4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFD8BB6E-BA82-48BE-B9E0-C3E023BBB823}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF53DC49-3E2D-41D1-93FD-CFABDC782D00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="544">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>16,54%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>Cuartil 3</t>
@@ -107,7 +107,7 @@
     <t>20,83%</t>
   </si>
   <si>
-    <t>18,51%</t>
+    <t>18,3%</t>
   </si>
   <si>
     <t>23,52%</t>
@@ -116,19 +116,19 @@
     <t>12,89%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>Cuartil 2</t>
@@ -137,1492 +137,1498 @@
     <t>30,68%</t>
   </si>
   <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
     <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
   </si>
   <si>
     <t>23,84%</t>
@@ -2076,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF5114-9B0F-4ADC-81C7-853618FA6BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C52F1-B9A4-4588-AB17-17709A401CC1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2454,7 +2460,7 @@
         <v>437</v>
       </c>
       <c r="D9" s="7">
-        <v>459765</v>
+        <v>459766</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2505,7 +2511,7 @@
         <v>643</v>
       </c>
       <c r="D10" s="7">
-        <v>651512</v>
+        <v>651513</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2526,10 +2532,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1105</v>
@@ -2538,13 +2544,13 @@
         <v>1117951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,16 +2562,16 @@
         <v>422</v>
       </c>
       <c r="D11" s="7">
-        <v>436059</v>
+        <v>436060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -2574,13 +2580,13 @@
         <v>510706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>917</v>
@@ -2589,13 +2595,13 @@
         <v>946766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2616,13 @@
         <v>146075</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -2625,13 +2631,13 @@
         <v>215204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>355</v>
@@ -2640,13 +2646,13 @@
         <v>361279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2664,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2714,13 +2720,13 @@
         <v>171882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -2729,13 +2735,13 @@
         <v>136093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>294</v>
@@ -2744,13 +2750,13 @@
         <v>307975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2771,13 @@
         <v>199544</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>123</v>
@@ -2780,13 +2786,13 @@
         <v>130336</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>317</v>
@@ -2795,13 +2801,13 @@
         <v>329879</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2822,13 @@
         <v>137986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -2831,13 +2837,13 @@
         <v>150803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -2846,13 +2852,13 @@
         <v>288789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2873,13 @@
         <v>41996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -2882,13 +2888,13 @@
         <v>59180</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2897,13 +2903,13 @@
         <v>101176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2977,13 @@
         <v>802340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>663</v>
@@ -2986,28 +2992,28 @@
         <v>677631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1431</v>
       </c>
       <c r="N19" s="7">
-        <v>1479970</v>
+        <v>1479971</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3028,13 @@
         <v>1065970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>757</v>
@@ -3037,28 +3043,28 @@
         <v>766248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1802</v>
       </c>
       <c r="N20" s="7">
-        <v>1832217</v>
+        <v>1832218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>890554</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>989</v>
@@ -3088,13 +3094,13 @@
         <v>1016248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1861</v>
@@ -3103,13 +3109,13 @@
         <v>1906801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>517680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>888</v>
@@ -3139,28 +3145,28 @@
         <v>919072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>1417</v>
       </c>
       <c r="N22" s="7">
-        <v>1436751</v>
+        <v>1436752</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3178,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -3202,7 +3208,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -3216,7 +3222,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65168232-C066-4BBB-90DF-5BEDC0D0B10D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A47C3-E06B-4507-B901-DD54C903C4AD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3252,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3359,13 +3365,13 @@
         <v>153018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3374,13 +3380,13 @@
         <v>131079</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -3389,13 +3395,13 @@
         <v>284098</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3416,13 @@
         <v>188297</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -3425,13 +3431,13 @@
         <v>218440</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>385</v>
@@ -3440,13 +3446,13 @@
         <v>406737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3467,13 @@
         <v>280215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>266</v>
@@ -3476,13 +3482,13 @@
         <v>288265</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>526</v>
@@ -3491,13 +3497,13 @@
         <v>568480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3518,13 @@
         <v>353112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>654</v>
@@ -3527,13 +3533,13 @@
         <v>700012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>977</v>
@@ -3542,13 +3548,13 @@
         <v>1053125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3622,13 @@
         <v>660917</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>494</v>
@@ -3631,13 +3637,13 @@
         <v>520548</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>1125</v>
@@ -3646,13 +3652,13 @@
         <v>1181465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3673,13 @@
         <v>560892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>432</v>
@@ -3682,13 +3688,13 @@
         <v>462915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>973</v>
@@ -3697,13 +3703,13 @@
         <v>1023806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,10 +3727,10 @@
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>448</v>
@@ -3733,13 +3739,13 @@
         <v>484152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3748,13 +3754,13 @@
         <v>1013843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3775,13 @@
         <v>212457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>261</v>
@@ -3784,13 +3790,13 @@
         <v>290188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>457</v>
@@ -3799,13 +3805,13 @@
         <v>502646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3867,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3873,13 +3879,13 @@
         <v>163201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>125</v>
@@ -3888,13 +3894,13 @@
         <v>133809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -3903,13 +3909,13 @@
         <v>297010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3930,13 @@
         <v>171734</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>130</v>
@@ -3939,13 +3945,13 @@
         <v>149409</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>291</v>
@@ -3954,13 +3960,13 @@
         <v>321143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3981,13 @@
         <v>100124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -3990,13 +3996,13 @@
         <v>131635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -4005,13 +4011,13 @@
         <v>231759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4032,13 @@
         <v>46122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4041,13 +4047,13 @@
         <v>43778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -4056,13 +4062,13 @@
         <v>89900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4136,13 @@
         <v>977137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>742</v>
@@ -4145,13 +4151,13 @@
         <v>785436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>1663</v>
@@ -4160,13 +4166,13 @@
         <v>1762573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>920923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>766</v>
@@ -4196,13 +4202,13 @@
         <v>830764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>1649</v>
@@ -4211,13 +4217,13 @@
         <v>1751687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4238,13 @@
         <v>910031</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>831</v>
@@ -4247,13 +4253,13 @@
         <v>904051</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>1670</v>
@@ -4262,13 +4268,13 @@
         <v>1814082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4289,13 @@
         <v>611692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>955</v>
@@ -4298,13 +4304,13 @@
         <v>1033979</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>1514</v>
@@ -4313,13 +4319,13 @@
         <v>1645671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,7 +4381,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C648ECC-F417-4897-8360-A5C03CBF513B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37B1D24-717F-441E-95FF-9401378C0820}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4524,13 @@
         <v>170742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -4533,13 +4539,13 @@
         <v>150556</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -4548,13 +4554,13 @@
         <v>321297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4575,13 @@
         <v>115884</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -4584,13 +4590,13 @@
         <v>113278</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>224</v>
@@ -4599,13 +4605,13 @@
         <v>229162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4626,13 @@
         <v>195126</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>204</v>
@@ -4635,13 +4641,13 @@
         <v>223419</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>397</v>
@@ -4650,13 +4656,13 @@
         <v>418545</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4677,13 @@
         <v>272595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>434</v>
@@ -4686,13 +4692,13 @@
         <v>507408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>720</v>
@@ -4701,13 +4707,13 @@
         <v>780003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4781,13 @@
         <v>803683</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H9" s="7">
         <v>698</v>
@@ -4790,13 +4796,13 @@
         <v>697796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>1465</v>
@@ -4805,13 +4811,13 @@
         <v>1501479</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4832,13 @@
         <v>535729</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>478</v>
@@ -4841,13 +4847,13 @@
         <v>490367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>979</v>
@@ -4856,13 +4862,13 @@
         <v>1026096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>490696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -4892,13 +4898,13 @@
         <v>452769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -4907,13 +4913,13 @@
         <v>943465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4934,13 @@
         <v>246277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>310</v>
@@ -4943,13 +4949,13 @@
         <v>347368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -4958,13 +4964,13 @@
         <v>593645</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,7 +5026,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5032,13 +5038,13 @@
         <v>233929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>198</v>
@@ -5047,13 +5053,13 @@
         <v>198612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -5062,13 +5068,13 @@
         <v>432541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5089,13 @@
         <v>168040</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H15" s="7">
         <v>153</v>
@@ -5098,13 +5104,13 @@
         <v>159638</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>201</v>
+        <v>370</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M15" s="7">
         <v>308</v>
@@ -5113,13 +5119,13 @@
         <v>327679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5140,13 @@
         <v>98336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5149,13 +5155,13 @@
         <v>122364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -5164,13 +5170,13 @@
         <v>220700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5191,13 @@
         <v>46580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -5200,13 +5206,13 @@
         <v>68526</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5215,13 +5221,13 @@
         <v>115105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5295,13 @@
         <v>1208354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>1043</v>
@@ -5304,13 +5310,13 @@
         <v>1046964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>2192</v>
@@ -5319,13 +5325,13 @@
         <v>2255318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5346,13 @@
         <v>819654</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>738</v>
@@ -5355,13 +5361,13 @@
         <v>763284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>1511</v>
@@ -5370,13 +5376,13 @@
         <v>1582937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5397,13 @@
         <v>784159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H21" s="7">
         <v>742</v>
@@ -5406,13 +5412,13 @@
         <v>798552</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>401</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>1479</v>
@@ -5421,13 +5427,13 @@
         <v>1582710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5448,13 @@
         <v>565452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>803</v>
@@ -5457,13 +5463,13 @@
         <v>923301</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>1359</v>
@@ -5472,13 +5478,13 @@
         <v>1488753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5540,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5553,7 +5559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BB6171-FC05-4D09-89F2-9DD80BBAD42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9E9385-3B67-4AFB-92C3-C53B5CB588F1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5570,7 +5576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5677,13 +5683,13 @@
         <v>70492</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>91</v>
@@ -5692,13 +5698,13 @@
         <v>62397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
@@ -5707,13 +5713,13 @@
         <v>132890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5734,13 @@
         <v>102817</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -5743,13 +5749,13 @@
         <v>103291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
@@ -5758,13 +5764,13 @@
         <v>206108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5785,13 @@
         <v>120184</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H6" s="7">
         <v>268</v>
@@ -5794,13 +5800,13 @@
         <v>155460</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>426</v>
@@ -5809,13 +5815,13 @@
         <v>275644</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5836,13 @@
         <v>243393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H7" s="7">
         <v>889</v>
@@ -5845,13 +5851,13 @@
         <v>503895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M7" s="7">
         <v>1215</v>
@@ -5860,13 +5866,13 @@
         <v>747288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5940,13 @@
         <v>548908</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H9" s="7">
         <v>607</v>
@@ -5949,13 +5955,13 @@
         <v>528770</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M9" s="7">
         <v>1036</v>
@@ -5964,13 +5970,13 @@
         <v>1077678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5991,13 @@
         <v>676191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>746</v>
@@ -6000,13 +6006,13 @@
         <v>615751</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>1359</v>
@@ -6015,13 +6021,13 @@
         <v>1291941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6042,13 @@
         <v>481623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>748</v>
@@ -6051,13 +6057,13 @@
         <v>599583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>1254</v>
@@ -6066,13 +6072,13 @@
         <v>1081206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6093,13 @@
         <v>446010</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>810</v>
@@ -6102,13 +6108,13 @@
         <v>499166</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>1245</v>
@@ -6117,13 +6123,13 @@
         <v>945176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,7 +6185,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6191,13 +6197,13 @@
         <v>188202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -6206,13 +6212,13 @@
         <v>222088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -6221,13 +6227,13 @@
         <v>410290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,13 +6248,13 @@
         <v>196381</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H15" s="7">
         <v>261</v>
@@ -6257,13 +6263,13 @@
         <v>199886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>493</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="M15" s="7">
         <v>456</v>
@@ -6272,13 +6278,13 @@
         <v>396267</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>496</v>
+        <v>275</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,10 +6299,10 @@
         <v>199378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>499</v>
@@ -6326,10 +6332,10 @@
         <v>503</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6350,13 @@
         <v>86756</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -6359,13 +6365,13 @@
         <v>112476</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
@@ -6374,13 +6380,13 @@
         <v>199232</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,7 +6454,7 @@
         <v>807603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>514</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>515</v>
@@ -6481,10 +6487,10 @@
         <v>520</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6505,13 @@
         <v>975389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>1166</v>
@@ -6514,13 +6520,13 @@
         <v>918927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
@@ -6529,13 +6535,13 @@
         <v>1894316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6556,13 @@
         <v>801185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>515</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H21" s="7">
         <v>1282</v>
@@ -6565,13 +6571,13 @@
         <v>931241</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M21" s="7">
         <v>2160</v>
@@ -6580,13 +6586,13 @@
         <v>1732427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6607,13 @@
         <v>776160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>1890</v>
@@ -6616,13 +6622,13 @@
         <v>1115537</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>2751</v>
@@ -6631,13 +6637,13 @@
         <v>1891697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,7 +6699,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DEA038-6356-4669-B964-633EF69DE4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DCD1B7-F916-482A-8584-93303F51C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF53DC49-3E2D-41D1-93FD-CFABDC782D00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{289C01B1-0441-4DCD-9E2C-E802EA92395B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="542">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1600 +77,1594 @@
     <t>16,54%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>Cuartil 3</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>Cuartil 2</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>Cuartil 3</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>Cuartil 2</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>29,73%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C52F1-B9A4-4588-AB17-17709A401CC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12468AC5-489C-4C5A-860C-6222F8CFA22A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2460,7 +2454,7 @@
         <v>437</v>
       </c>
       <c r="D9" s="7">
-        <v>459766</v>
+        <v>459765</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2511,7 +2505,7 @@
         <v>643</v>
       </c>
       <c r="D10" s="7">
-        <v>651513</v>
+        <v>651512</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2532,10 +2526,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1105</v>
@@ -2544,13 +2538,13 @@
         <v>1117951</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,16 +2556,16 @@
         <v>422</v>
       </c>
       <c r="D11" s="7">
-        <v>436060</v>
+        <v>436059</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -2580,13 +2574,13 @@
         <v>510706</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>917</v>
@@ -2595,13 +2589,13 @@
         <v>946766</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2610,13 @@
         <v>146075</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -2631,13 +2625,13 @@
         <v>215204</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>355</v>
@@ -2646,13 +2640,13 @@
         <v>361279</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,7 +2658,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2708,7 +2702,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2714,13 @@
         <v>171882</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -2735,13 +2729,13 @@
         <v>136093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>294</v>
@@ -2750,13 +2744,13 @@
         <v>307975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2765,13 @@
         <v>199544</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>123</v>
@@ -2786,13 +2780,13 @@
         <v>130336</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="M15" s="7">
         <v>317</v>
@@ -2801,13 +2795,13 @@
         <v>329879</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2816,13 @@
         <v>137986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -2837,13 +2831,13 @@
         <v>150803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -2852,13 +2846,13 @@
         <v>288789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2867,13 @@
         <v>41996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -2888,13 +2882,13 @@
         <v>59180</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2903,13 +2897,13 @@
         <v>101176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2971,13 @@
         <v>802340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>663</v>
@@ -2992,28 +2986,28 @@
         <v>677631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>1431</v>
       </c>
       <c r="N19" s="7">
-        <v>1479971</v>
+        <v>1479970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3022,13 @@
         <v>1065970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>757</v>
@@ -3043,28 +3037,28 @@
         <v>766248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>1802</v>
       </c>
       <c r="N20" s="7">
-        <v>1832218</v>
+        <v>1832217</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3073,13 @@
         <v>890554</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>989</v>
@@ -3094,13 +3088,13 @@
         <v>1016248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>1861</v>
@@ -3109,13 +3103,13 @@
         <v>1906801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3124,13 @@
         <v>517680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>888</v>
@@ -3145,28 +3139,28 @@
         <v>919072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>1417</v>
       </c>
       <c r="N22" s="7">
-        <v>1436752</v>
+        <v>1436751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,7 +3172,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -3208,7 +3202,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -3222,7 +3216,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A47C3-E06B-4507-B901-DD54C903C4AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A342CD36-7A06-439F-ACC4-4E38BBBD2901}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3258,7 +3252,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3365,13 +3359,13 @@
         <v>153018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3380,13 +3374,13 @@
         <v>131079</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -3395,13 +3389,13 @@
         <v>284098</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3410,13 @@
         <v>188297</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -3431,13 +3425,13 @@
         <v>218440</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>385</v>
@@ -3446,13 +3440,13 @@
         <v>406737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3461,13 @@
         <v>280215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>266</v>
@@ -3482,13 +3476,13 @@
         <v>288265</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>526</v>
@@ -3497,13 +3491,13 @@
         <v>568480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3512,13 @@
         <v>353112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>654</v>
@@ -3533,13 +3527,13 @@
         <v>700012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>977</v>
@@ -3548,13 +3542,13 @@
         <v>1053125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3616,13 @@
         <v>660917</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7">
         <v>494</v>
@@ -3637,13 +3631,13 @@
         <v>520548</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>1125</v>
@@ -3652,13 +3646,13 @@
         <v>1181465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3667,13 @@
         <v>560892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>432</v>
@@ -3688,13 +3682,13 @@
         <v>462915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>973</v>
@@ -3703,13 +3697,13 @@
         <v>1023806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,10 +3721,10 @@
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>448</v>
@@ -3739,13 +3733,13 @@
         <v>484152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3754,13 +3748,13 @@
         <v>1013843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3769,13 @@
         <v>212457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>261</v>
@@ -3790,13 +3784,13 @@
         <v>290188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>457</v>
@@ -3805,13 +3799,13 @@
         <v>502646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +3861,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3879,13 +3873,13 @@
         <v>163201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>125</v>
@@ -3894,13 +3888,13 @@
         <v>133809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -3909,13 +3903,13 @@
         <v>297010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3924,13 @@
         <v>171734</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>130</v>
@@ -3945,13 +3939,13 @@
         <v>149409</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>291</v>
@@ -3960,13 +3954,13 @@
         <v>321143</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3975,13 @@
         <v>100124</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -3996,13 +3990,13 @@
         <v>131635</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -4011,13 +4005,13 @@
         <v>231759</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4026,13 @@
         <v>46122</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4047,13 +4041,13 @@
         <v>43778</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -4062,13 +4056,13 @@
         <v>89900</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4130,13 @@
         <v>977137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>742</v>
@@ -4151,13 +4145,13 @@
         <v>785436</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>1663</v>
@@ -4166,13 +4160,13 @@
         <v>1762573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4181,13 @@
         <v>920923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>766</v>
@@ -4202,13 +4196,13 @@
         <v>830764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>1649</v>
@@ -4217,13 +4211,13 @@
         <v>1751687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4232,13 @@
         <v>910031</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>831</v>
@@ -4253,13 +4247,13 @@
         <v>904051</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>1670</v>
@@ -4268,13 +4262,13 @@
         <v>1814082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4283,13 @@
         <v>611692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>955</v>
@@ -4304,13 +4298,13 @@
         <v>1033979</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>1514</v>
@@ -4319,13 +4313,13 @@
         <v>1645671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37B1D24-717F-441E-95FF-9401378C0820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F9755-B3DB-474A-B22E-01D494108DB0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4518,13 @@
         <v>170742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -4539,13 +4533,13 @@
         <v>150556</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -4554,13 +4548,13 @@
         <v>321297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4569,13 @@
         <v>115884</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -4590,13 +4584,13 @@
         <v>113278</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>224</v>
@@ -4605,13 +4599,13 @@
         <v>229162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4620,13 @@
         <v>195126</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>204</v>
@@ -4641,13 +4635,13 @@
         <v>223419</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>397</v>
@@ -4656,13 +4650,13 @@
         <v>418545</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4671,13 @@
         <v>272595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>434</v>
@@ -4692,13 +4686,13 @@
         <v>507408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>720</v>
@@ -4707,13 +4701,13 @@
         <v>780003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4775,13 @@
         <v>803683</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
         <v>698</v>
@@ -4796,13 +4790,13 @@
         <v>697796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>1465</v>
@@ -4811,13 +4805,13 @@
         <v>1501479</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4826,13 @@
         <v>535729</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>478</v>
@@ -4847,13 +4841,13 @@
         <v>490367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>979</v>
@@ -4862,13 +4856,13 @@
         <v>1026096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4877,13 @@
         <v>490696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -4898,13 +4892,13 @@
         <v>452769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -4913,13 +4907,13 @@
         <v>943465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4928,13 @@
         <v>246277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>310</v>
@@ -4949,13 +4943,13 @@
         <v>347368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -4964,13 +4958,13 @@
         <v>593645</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5020,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5038,13 +5032,13 @@
         <v>233929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>198</v>
@@ -5053,13 +5047,13 @@
         <v>198612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -5068,13 +5062,13 @@
         <v>432541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5083,13 @@
         <v>168040</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H15" s="7">
         <v>153</v>
@@ -5104,13 +5098,13 @@
         <v>159638</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M15" s="7">
         <v>308</v>
@@ -5119,13 +5113,13 @@
         <v>327679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>90</v>
+        <v>367</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5134,13 @@
         <v>98336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5155,13 +5149,13 @@
         <v>122364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -5170,13 +5164,13 @@
         <v>220700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5185,13 @@
         <v>46580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -5206,13 +5200,13 @@
         <v>68526</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5221,13 +5215,13 @@
         <v>115105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5289,13 @@
         <v>1208354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>1043</v>
@@ -5310,13 +5304,13 @@
         <v>1046964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>2192</v>
@@ -5325,13 +5319,13 @@
         <v>2255318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5340,13 @@
         <v>819654</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>738</v>
@@ -5361,13 +5355,13 @@
         <v>763284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>1511</v>
@@ -5376,13 +5370,13 @@
         <v>1582937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5391,13 @@
         <v>784159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>408</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>742</v>
@@ -5412,13 +5406,13 @@
         <v>798552</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>406</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="M21" s="7">
         <v>1479</v>
@@ -5427,13 +5421,13 @@
         <v>1582710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5442,13 @@
         <v>565452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H22" s="7">
         <v>803</v>
@@ -5463,13 +5457,13 @@
         <v>923301</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>1359</v>
@@ -5478,13 +5472,13 @@
         <v>1488753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,7 +5534,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9E9385-3B67-4AFB-92C3-C53B5CB588F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E76E14-F233-433F-9257-041273453B66}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5576,7 +5570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5683,13 +5677,13 @@
         <v>70492</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H4" s="7">
         <v>91</v>
@@ -5698,13 +5692,13 @@
         <v>62397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>425</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
@@ -5713,13 +5707,13 @@
         <v>132890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5728,13 @@
         <v>102817</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -5749,13 +5743,13 @@
         <v>103291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
@@ -5764,13 +5758,13 @@
         <v>206108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5779,13 @@
         <v>120184</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
         <v>268</v>
@@ -5800,13 +5794,13 @@
         <v>155460</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>426</v>
@@ -5815,13 +5809,13 @@
         <v>275644</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5830,13 @@
         <v>243393</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H7" s="7">
         <v>889</v>
@@ -5851,13 +5845,13 @@
         <v>503895</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M7" s="7">
         <v>1215</v>
@@ -5866,13 +5860,13 @@
         <v>747288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5934,13 @@
         <v>548908</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>607</v>
@@ -5955,13 +5949,13 @@
         <v>528770</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>1036</v>
@@ -5970,13 +5964,13 @@
         <v>1077678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5985,13 @@
         <v>676191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>746</v>
@@ -6006,13 +6000,13 @@
         <v>615751</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>1359</v>
@@ -6021,13 +6015,13 @@
         <v>1291941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6036,13 @@
         <v>481623</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>748</v>
@@ -6057,13 +6051,13 @@
         <v>599583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M11" s="7">
         <v>1254</v>
@@ -6072,13 +6066,13 @@
         <v>1081206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>474</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6087,13 @@
         <v>446010</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H12" s="7">
         <v>810</v>
@@ -6108,13 +6102,13 @@
         <v>499166</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>1245</v>
@@ -6123,13 +6117,13 @@
         <v>945176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6179,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6197,13 +6191,13 @@
         <v>188202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -6212,13 +6206,13 @@
         <v>222088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -6227,13 +6221,13 @@
         <v>410290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6242,13 @@
         <v>196381</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>488</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>494</v>
+        <v>339</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H15" s="7">
         <v>261</v>
@@ -6263,13 +6257,13 @@
         <v>199886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>115</v>
+        <v>492</v>
       </c>
       <c r="M15" s="7">
         <v>456</v>
@@ -6278,13 +6272,13 @@
         <v>396267</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>275</v>
+        <v>494</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6293,13 @@
         <v>199378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
@@ -6314,13 +6308,13 @@
         <v>176198</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -6329,10 +6323,10 @@
         <v>375576</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>504</v>
@@ -6371,7 +6365,7 @@
         <v>509</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
@@ -6380,13 +6374,13 @@
         <v>199232</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6448,13 @@
         <v>807603</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="H19" s="7">
         <v>981</v>
@@ -6469,13 +6463,13 @@
         <v>813255</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M19" s="7">
         <v>1658</v>
@@ -6484,13 +6478,13 @@
         <v>1620858</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6499,13 @@
         <v>975389</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>1166</v>
@@ -6520,13 +6514,13 @@
         <v>918927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>526</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>514</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
@@ -6535,13 +6529,13 @@
         <v>1894316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,16 +6547,16 @@
         <v>878</v>
       </c>
       <c r="D21" s="7">
-        <v>801185</v>
+        <v>801186</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H21" s="7">
         <v>1282</v>
@@ -6571,13 +6565,13 @@
         <v>931241</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M21" s="7">
         <v>2160</v>
@@ -6586,13 +6580,13 @@
         <v>1732427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6601,13 @@
         <v>776160</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>1890</v>
@@ -6622,13 +6616,13 @@
         <v>1115537</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>471</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M22" s="7">
         <v>2751</v>
@@ -6637,13 +6631,13 @@
         <v>1891697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>542</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,7 +6649,7 @@
         <v>3347</v>
       </c>
       <c r="D23" s="7">
-        <v>3360337</v>
+        <v>3360338</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6699,7 +6693,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DCD1B7-F916-482A-8584-93303F51C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD28F376-E734-416E-B8F0-EC40776A4CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{289C01B1-0441-4DCD-9E2C-E802EA92395B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7DB58616-A9F2-40A4-ABC9-C57DEF882882}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="529">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Cuartil 4</t>
+    <t>más de 56.395</t>
   </si>
   <si>
     <t>16,54%</t>
@@ -101,7 +101,7 @@
     <t>14,97%</t>
   </si>
   <si>
-    <t>Cuartil 3</t>
+    <t>54.994-56.395</t>
   </si>
   <si>
     <t>20,83%</t>
@@ -131,7 +131,7 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>Cuartil 2</t>
+    <t>49.020-54.993</t>
   </si>
   <si>
     <t>30,68%</t>
@@ -161,7 +161,7 @@
     <t>30,35%</t>
   </si>
   <si>
-    <t>Cuartil 1</t>
+    <t>menos de 49.019</t>
   </si>
   <si>
     <t>31,95%</t>
@@ -1289,382 +1289,343 @@
     <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12468AC5-489C-4C5A-860C-6222F8CFA22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451DA4BD-AAA6-4F44-A85F-BE5E07B5F00C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2431,7 +2392,7 @@
         <v>2329</v>
       </c>
       <c r="N8" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -2454,7 +2415,7 @@
         <v>437</v>
       </c>
       <c r="D9" s="7">
-        <v>459765</v>
+        <v>459766</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2505,7 +2466,7 @@
         <v>643</v>
       </c>
       <c r="D10" s="7">
-        <v>651512</v>
+        <v>651513</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2556,7 +2517,7 @@
         <v>422</v>
       </c>
       <c r="D11" s="7">
-        <v>436059</v>
+        <v>436060</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2658,7 +2619,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2983,7 +2944,7 @@
         <v>663</v>
       </c>
       <c r="I19" s="7">
-        <v>677631</v>
+        <v>677630</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>123</v>
@@ -2998,7 +2959,7 @@
         <v>1431</v>
       </c>
       <c r="N19" s="7">
-        <v>1479970</v>
+        <v>1479971</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>126</v>
@@ -3034,7 +2995,7 @@
         <v>757</v>
       </c>
       <c r="I20" s="7">
-        <v>766248</v>
+        <v>766247</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>132</v>
@@ -3049,7 +3010,7 @@
         <v>1802</v>
       </c>
       <c r="N20" s="7">
-        <v>1832217</v>
+        <v>1832218</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>106</v>
@@ -3085,7 +3046,7 @@
         <v>989</v>
       </c>
       <c r="I21" s="7">
-        <v>1016248</v>
+        <v>1016247</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>140</v>
@@ -3151,7 +3112,7 @@
         <v>1417</v>
       </c>
       <c r="N22" s="7">
-        <v>1436751</v>
+        <v>1436752</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>151</v>
@@ -3172,7 +3133,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -3187,7 +3148,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -3202,7 +3163,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -3235,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A342CD36-7A06-439F-ACC4-4E38BBBD2901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DCF98E-4178-497F-B4D0-72608B694277}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3524,7 +3485,7 @@
         <v>654</v>
       </c>
       <c r="I7" s="7">
-        <v>700012</v>
+        <v>700013</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>184</v>
@@ -3575,7 +3536,7 @@
         <v>1247</v>
       </c>
       <c r="I8" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -4104,7 +4065,7 @@
         <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4394,7 +4355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F9755-B3DB-474A-B22E-01D494108DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F876230-E6A2-41EE-8234-D90C63BB9DE2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5059,7 +5020,7 @@
         <v>414</v>
       </c>
       <c r="N14" s="7">
-        <v>432541</v>
+        <v>432542</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>359</v>
@@ -5161,7 +5122,7 @@
         <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>220700</v>
+        <v>220701</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>374</v>
@@ -5263,7 +5224,7 @@
         <v>1027</v>
       </c>
       <c r="N18" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -5553,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E76E14-F233-433F-9257-041273453B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79B31E-7259-495B-B51E-A372F567A678}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5674,7 +5635,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>70492</v>
+        <v>66374</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>416</v>
@@ -5689,7 +5650,7 @@
         <v>91</v>
       </c>
       <c r="I4" s="7">
-        <v>62397</v>
+        <v>56420</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>419</v>
@@ -5698,22 +5659,22 @@
         <v>420</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>421</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
       </c>
       <c r="N4" s="7">
-        <v>132890</v>
+        <v>122794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>423</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="D5" s="7">
-        <v>102817</v>
+        <v>97108</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>424</v>
@@ -5734,37 +5695,37 @@
         <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>103291</v>
+        <v>92077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
       </c>
       <c r="N5" s="7">
-        <v>206108</v>
+        <v>189185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,46 +5737,46 @@
         <v>158</v>
       </c>
       <c r="D6" s="7">
-        <v>120184</v>
+        <v>117187</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H6" s="7">
         <v>268</v>
       </c>
       <c r="I6" s="7">
-        <v>155460</v>
+        <v>142029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>426</v>
       </c>
       <c r="N6" s="7">
-        <v>275644</v>
+        <v>259216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,43 +5788,43 @@
         <v>326</v>
       </c>
       <c r="D7" s="7">
-        <v>243393</v>
+        <v>229727</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>889</v>
       </c>
       <c r="I7" s="7">
-        <v>503895</v>
+        <v>455030</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>1215</v>
       </c>
       <c r="N7" s="7">
-        <v>747288</v>
+        <v>684756</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>448</v>
@@ -5878,7 +5839,7 @@
         <v>685</v>
       </c>
       <c r="D8" s="7">
-        <v>536887</v>
+        <v>510396</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5893,7 +5854,7 @@
         <v>1407</v>
       </c>
       <c r="I8" s="7">
-        <v>825043</v>
+        <v>745556</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5908,7 +5869,7 @@
         <v>2092</v>
       </c>
       <c r="N8" s="7">
-        <v>1361930</v>
+        <v>1255951</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5931,7 +5892,7 @@
         <v>429</v>
       </c>
       <c r="D9" s="7">
-        <v>548908</v>
+        <v>542639</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>449</v>
@@ -5946,31 +5907,31 @@
         <v>607</v>
       </c>
       <c r="I9" s="7">
-        <v>528770</v>
+        <v>497443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>1036</v>
       </c>
       <c r="N9" s="7">
-        <v>1077678</v>
+        <v>1040082</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,10 +5943,10 @@
         <v>613</v>
       </c>
       <c r="D10" s="7">
-        <v>676191</v>
+        <v>642856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>458</v>
@@ -5997,7 +5958,7 @@
         <v>746</v>
       </c>
       <c r="I10" s="7">
-        <v>615751</v>
+        <v>608485</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>460</v>
@@ -6012,16 +5973,16 @@
         <v>1359</v>
       </c>
       <c r="N10" s="7">
-        <v>1291941</v>
+        <v>1251341</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,28 +5994,28 @@
         <v>506</v>
       </c>
       <c r="D11" s="7">
-        <v>481623</v>
+        <v>475993</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H11" s="7">
         <v>748</v>
       </c>
       <c r="I11" s="7">
-        <v>599583</v>
+        <v>665459</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>470</v>
@@ -6063,16 +6024,16 @@
         <v>1254</v>
       </c>
       <c r="N11" s="7">
-        <v>1081206</v>
+        <v>1141452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,10 +6045,10 @@
         <v>435</v>
       </c>
       <c r="D12" s="7">
-        <v>446010</v>
+        <v>620057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>474</v>
@@ -6099,31 +6060,31 @@
         <v>810</v>
       </c>
       <c r="I12" s="7">
-        <v>499166</v>
+        <v>460709</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>1245</v>
       </c>
       <c r="N12" s="7">
-        <v>945176</v>
+        <v>1080766</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,7 +6096,7 @@
         <v>1983</v>
       </c>
       <c r="D13" s="7">
-        <v>2152732</v>
+        <v>2281546</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6150,7 +6111,7 @@
         <v>2911</v>
       </c>
       <c r="I13" s="7">
-        <v>2243270</v>
+        <v>2232096</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6165,7 +6126,7 @@
         <v>4894</v>
       </c>
       <c r="N13" s="7">
-        <v>4396002</v>
+        <v>4513642</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6188,46 +6149,46 @@
         <v>170</v>
       </c>
       <c r="D14" s="7">
-        <v>188202</v>
+        <v>185456</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>222088</v>
+        <v>204613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>484</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
       </c>
       <c r="N14" s="7">
-        <v>410290</v>
+        <v>390069</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>485</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,46 +6200,46 @@
         <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>196381</v>
+        <v>183376</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H15" s="7">
         <v>261</v>
       </c>
       <c r="I15" s="7">
-        <v>199886</v>
+        <v>183511</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>491</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>492</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>456</v>
       </c>
       <c r="N15" s="7">
-        <v>396267</v>
+        <v>366887</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>494</v>
+        <v>149</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,46 +6251,46 @@
         <v>214</v>
       </c>
       <c r="D16" s="7">
-        <v>199378</v>
+        <v>193324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
       </c>
       <c r="I16" s="7">
-        <v>176198</v>
+        <v>166023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
       </c>
       <c r="N16" s="7">
-        <v>375576</v>
+        <v>359347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,46 +6302,46 @@
         <v>100</v>
       </c>
       <c r="D17" s="7">
-        <v>86756</v>
+        <v>82305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
       </c>
       <c r="I17" s="7">
-        <v>112476</v>
+        <v>103442</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
       </c>
       <c r="N17" s="7">
-        <v>199232</v>
+        <v>185747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6353,7 @@
         <v>679</v>
       </c>
       <c r="D18" s="7">
-        <v>670718</v>
+        <v>644461</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6407,7 +6368,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>710648</v>
+        <v>657589</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6422,7 +6383,7 @@
         <v>1680</v>
       </c>
       <c r="N18" s="7">
-        <v>1381366</v>
+        <v>1302050</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6445,46 +6406,46 @@
         <v>677</v>
       </c>
       <c r="D19" s="7">
-        <v>807603</v>
+        <v>794469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>504</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H19" s="7">
         <v>981</v>
       </c>
       <c r="I19" s="7">
-        <v>813255</v>
+        <v>758476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
         <v>1658</v>
       </c>
       <c r="N19" s="7">
-        <v>1620858</v>
+        <v>1552945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,46 +6457,46 @@
         <v>931</v>
       </c>
       <c r="D20" s="7">
-        <v>975389</v>
+        <v>923341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
         <v>1166</v>
       </c>
       <c r="I20" s="7">
-        <v>918927</v>
+        <v>884072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>514</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
       </c>
       <c r="N20" s="7">
-        <v>1894316</v>
+        <v>1807413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,46 +6508,46 @@
         <v>878</v>
       </c>
       <c r="D21" s="7">
-        <v>801186</v>
+        <v>786504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>527</v>
+        <v>426</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>529</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
         <v>1282</v>
       </c>
       <c r="I21" s="7">
-        <v>931241</v>
+        <v>973511</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="M21" s="7">
         <v>2160</v>
       </c>
       <c r="N21" s="7">
-        <v>1732427</v>
+        <v>1760015</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>395</v>
+        <v>519</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,46 +6559,46 @@
         <v>861</v>
       </c>
       <c r="D22" s="7">
-        <v>776160</v>
+        <v>932089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>1890</v>
       </c>
       <c r="I22" s="7">
-        <v>1115537</v>
+        <v>1019181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>2751</v>
       </c>
       <c r="N22" s="7">
-        <v>1891697</v>
+        <v>1951270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6610,7 @@
         <v>3347</v>
       </c>
       <c r="D23" s="7">
-        <v>3360338</v>
+        <v>3436403</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6664,7 +6625,7 @@
         <v>5319</v>
       </c>
       <c r="I23" s="7">
-        <v>3778960</v>
+        <v>3635240</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6679,7 +6640,7 @@
         <v>8666</v>
       </c>
       <c r="N23" s="7">
-        <v>7139298</v>
+        <v>7071643</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
